--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFA70B-69C7-43B6-8192-5C79B7F09671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F142655-1B3E-417B-BFDB-88D61D6161B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23150" yWindow="-110" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -69,57 +69,9 @@
     <t>Student 2:</t>
   </si>
   <si>
-    <t>1. Evidenţa filmelor din colecţia personală</t>
-  </si>
-  <si>
     <t>Student 3:</t>
   </si>
   <si>
-    <t>Un cinefil doreşte să îşi dezvolte un program pentru gestionarea filmelor din colecţia personală. Programul va permite următoarele operaţii:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>F02.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cautarea filmelor care au un anumit regizor (sau parti din numele regizorului);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">F02. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>cautarea filmelor care au un anumit regizor (sau parti din numele regizorului).</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">F02. Covered source code </t>
   </si>
   <si>
@@ -138,27 +90,15 @@
     <t>Se va insera CFG asociat codului sursa testat (poza, diagrama, etc.).</t>
   </si>
   <si>
-    <t>CC1 = No. of regions =</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
     <t>Req02_L01</t>
   </si>
   <si>
-    <t>CC2 = Edges - Nodes + 2 =</t>
-  </si>
-  <si>
     <t>Req02_L02</t>
   </si>
   <si>
-    <t>&lt;Req02 CFG &gt;</t>
-  </si>
-  <si>
-    <t>CC3 = No. of Conditions + 1 =</t>
-  </si>
-  <si>
     <t>Predicate+1</t>
   </si>
   <si>
@@ -183,15 +123,9 @@
     <t>F02_P01</t>
   </si>
   <si>
-    <t>1 - 2(F) - …</t>
-  </si>
-  <si>
     <t>F02_P02</t>
   </si>
   <si>
-    <t>1 - 2(T) - …</t>
-  </si>
-  <si>
     <t>F02_P03</t>
   </si>
   <si>
@@ -219,33 +153,6 @@
     <t>Loop (lc)</t>
   </si>
   <si>
-    <t>F02_Cond01 &gt; 100</t>
-  </si>
-  <si>
-    <t>F02_Cond02 &lt; 20</t>
-  </si>
-  <si>
-    <t>F02_Cond03 == i</t>
-  </si>
-  <si>
-    <t>F02_Condnn &lt; n</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
-  </si>
-  <si>
-    <t>n-1</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>n+1</t>
-  </si>
-  <si>
-    <t>m&lt;n</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -253,12 +160,6 @@
   </si>
   <si>
     <t>F02_TC01</t>
-  </si>
-  <si>
-    <t>1, 2,4, 6, 7</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>WBT Implemented TCs</t>
@@ -493,6 +394,153 @@
   </si>
   <si>
     <t>nu</t>
+  </si>
+  <si>
+    <t>Ruse Teodor</t>
+  </si>
+  <si>
+    <t>Rusu Dana</t>
+  </si>
+  <si>
+    <t>Stan Ariana-Maria</t>
+  </si>
+  <si>
+    <t>1. PizzaShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un antreprenor doreste sa isi dezvolte o aplicatie pentru gestiunea pizzeriei. Programul va permite următoarele operaţii: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F02.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> afisarea totalul incasarilor realizate, pentru fiecare tip de plata</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">F02. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>afisarea totalul incasarilor realizate, pentru fiecare tip de plata</t>
+    </r>
+  </si>
+  <si>
+    <t>CC3 = No. of Conditions + 1 =4+1</t>
+  </si>
+  <si>
+    <t>CC2 = Edges - Nodes + 2 =10-7+2</t>
+  </si>
+  <si>
+    <t>CC1 = No. of regions =5</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>F02_TC06</t>
+  </si>
+  <si>
+    <t>F02_TC07</t>
+  </si>
+  <si>
+    <t>F02_TC08</t>
+  </si>
+  <si>
+    <t>F02_P04</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 7</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 3(T) - 7</t>
+  </si>
+  <si>
+    <t>F02_P06</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 3(F) - 4 - 5(F) - 4 - 5(T) - 6 - 4(terminat) - 7</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 3(F) - 4 - 5(T) - 6 - 4 - 5(F) - 4 - 5(T) - 6 - 4(terminat) - 7</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 6, 7</t>
+  </si>
+  <si>
+    <t>1, 2, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1, 2, 3, 7</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7</t>
+  </si>
+  <si>
+    <t>F02_Cond01 == null</t>
+  </si>
+  <si>
+    <t>F02_Cond02 isEmpty()</t>
+  </si>
+  <si>
+    <t>F02_Cond03 equals(type)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 3(F) - 4 - 5(T) - 6 - 4(terminat) - 7</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 3(F) - 4 - 5(F) - 6 - 4(terminat) - 7</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -611,13 +659,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="9"/>
@@ -634,8 +675,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,8 +755,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1168,11 +1221,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,165 +1304,205 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,116 +1511,155 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,23 +1682,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>613834</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6187" name="Picture 1">
+        <xdr:cNvPr id="3" name="Imagine 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435F7F1-A450-F200-FAA2-1AC856A30048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,72 +1707,42 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="567690" y="1211580"/>
-          <a:ext cx="4442460" cy="2369820"/>
+          <a:off x="5037667" y="1643944"/>
+          <a:ext cx="4367389" cy="3218633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>613834</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6188" name="Picture 4">
+        <xdr:cNvPr id="4" name="Imagine 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5F8F1B-C10B-12E1-C774-D80BAA801B5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,49 +1751,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5208270" y="1588770"/>
-          <a:ext cx="4724400" cy="4168140"/>
+          <a:off x="613834" y="1269999"/>
+          <a:ext cx="3826774" cy="3179801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1928,30 +2063,30 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1961,88 +2096,100 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="s">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>14</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2061,372 +2208,371 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="Q6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="C8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="42" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="I8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="Q6" s="42" t="s">
+      <c r="Q8" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="60" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="Q9" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="12" t="s">
+      <c r="C10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="Q10" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="59" t="s">
+      <c r="S10" s="43"/>
+      <c r="T10" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="36" t="s">
+      <c r="C11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="C12" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="Q13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="I9" s="40"/>
-      <c r="Q9" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="C14" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I15" s="37"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+      <c r="Q15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="I10" s="50" t="s">
+      <c r="R15" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="59" t="s">
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="Q16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+      <c r="Q17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="59"/>
-      <c r="T10" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="R17" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="Q18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="Q13" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="Q15" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="Q16" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="Q17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="Q18" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="Q19" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="R18" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="Q19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39"/>
+      <c r="Q20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="Q21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
+  <mergeCells count="21">
+    <mergeCell ref="R21:T21"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="R16:T16"/>
@@ -2435,8 +2581,6 @@
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R21:T21"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:O24"/>
@@ -2449,7 +2593,6 @@
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2462,458 +2605,617 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:AB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="22" max="24" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="6.08984375" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" customWidth="1"/>
+    <col min="13" max="13" width="4.90625" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" customWidth="1"/>
+    <col min="21" max="21" width="9.08984375" customWidth="1"/>
+    <col min="22" max="24" width="2.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="95"/>
+    </row>
+    <row r="7" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="96"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="86"/>
+    </row>
+    <row r="8" spans="2:28" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="96"/>
+      <c r="C8" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="92"/>
+      <c r="H8" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="92"/>
+      <c r="J8" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="92"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="U8" s="109"/>
+      <c r="V8" s="89">
+        <v>0</v>
+      </c>
+      <c r="W8" s="89">
+        <v>1</v>
+      </c>
+      <c r="X8" s="89">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="89">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+    </row>
+    <row r="9" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="120"/>
+    </row>
+    <row r="10" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
+      <c r="C10" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="106">
+        <v>10</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="111"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+    </row>
+    <row r="11" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" s="64">
+      <c r="C11" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="106">
         <v>0</v>
       </c>
-      <c r="W8" s="64">
-        <v>1</v>
-      </c>
-      <c r="X8" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z8" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB8" s="64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
+      <c r="E11" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="121"/>
+    </row>
+    <row r="12" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="107">
+        <v>0</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="118"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+    </row>
+    <row r="13" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="107">
+        <v>20</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+    </row>
+    <row r="14" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="106">
+        <v>0</v>
+      </c>
+      <c r="E14" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+    </row>
+    <row r="15" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="106">
+        <v>42.5</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+    </row>
+    <row r="16" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="106">
+        <v>30</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+    </row>
+    <row r="17" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="106">
+        <v>30</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" s="11"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="27">
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="P7:U7"/>
     <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
@@ -2927,7 +3229,6 @@
     <mergeCell ref="E6:AB6"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="W8:W9"/>
@@ -2938,6 +3239,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E11" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2946,412 +3250,428 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="51"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="12">
+        <v>13</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="13">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="12">
+        <v>14</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="12">
+        <v>15</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="12">
+        <v>16</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="12">
+        <v>20</v>
+      </c>
+      <c r="L9" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="2">
+        <v>17</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="2">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="2">
+        <v>19</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="2">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="2">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="64"/>
+      <c r="H23" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="79"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="I24" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="L24" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="M24" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="N24" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="75" t="s">
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="80"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="66"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="20">
+        <f>SUM(C26:D26)</f>
+        <v>8</v>
+      </c>
+      <c r="C26" s="122">
+        <v>8</v>
+      </c>
+      <c r="D26" s="122">
+        <v>0</v>
+      </c>
+      <c r="E26" s="123">
+        <v>100</v>
+      </c>
+      <c r="F26" s="124">
+        <v>0</v>
+      </c>
+      <c r="G26" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="76"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="74"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23">
-        <v>9</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
-        <v>10</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="23">
-        <v>5</v>
-      </c>
-      <c r="F7" s="23">
-        <v>6</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="23">
-        <v>11</v>
-      </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
-        <v>12</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
-        <v>13</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="71"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="93"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="29">
-        <f>SUM(C16:D16)</f>
+      <c r="H26" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="20">
+        <f>SUM(J26:K26)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="J26" s="122">
         <v>0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="K26" s="127">
         <v>0</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="29">
-        <f>SUM(J16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="26">
-        <v>0</v>
-      </c>
-      <c r="K16" s="30">
-        <v>0</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" s="32">
-        <f>C16</f>
-        <v>0</v>
+      <c r="L26" s="128"/>
+      <c r="M26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="129">
+        <f>C26</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
+  <mergeCells count="34">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3366,7 +3686,7 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3374,21 +3694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e00392fbb7f49de63e89755c965b762">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37d4e1d93698397f16b7bbb6f83014a7" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3556,24 +3861,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845501DA-8B32-4FE5-8083-FBCE9B17F25B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3589,4 +3892,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F142655-1B3E-417B-BFDB-88D61D6161B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1265BBC-C4CE-4C7E-B706-E6C7F7F5295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23150" yWindow="-110" windowWidth="23260" windowHeight="12460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,14 +755,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -843,19 +837,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1113,19 +1094,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -1192,14 +1160,16 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1209,30 +1179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1240,45 +1186,15 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1288,15 +1204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,36 +1221,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1346,320 +1256,242 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,105 +1899,105 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
-      <c r="D1" s="26" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -2173,23 +2005,23 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2209,377 +2041,370 @@
   <dimension ref="B1:T24"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" customWidth="1"/>
     <col min="20" max="20" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
-      <c r="D1" s="26" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="26" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="I6" s="26" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="I6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="Q6" s="26" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="Q6" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="I8" s="8" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="43" t="s">
+      <c r="Q8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="19">
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="I9" s="23"/>
-      <c r="Q9" s="43" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="21"/>
+      <c r="Q9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="19">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="36"/>
-      <c r="Q10" s="43" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="47"/>
+      <c r="Q10" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="43"/>
-      <c r="T10" s="19">
+      <c r="S10" s="41"/>
+      <c r="T10" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="Q13" s="26" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="Q13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="20" t="s">
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="Q15" s="17" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="Q15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="44" t="s">
+      <c r="R15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39"/>
-      <c r="Q16" s="20" t="s">
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
+      <c r="Q16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-      <c r="Q17" s="20" t="s">
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
+      <c r="Q17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
-      <c r="Q18" s="20" t="s">
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="Q18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
-      <c r="Q19" s="20" t="s">
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+      <c r="Q19" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-      <c r="Q20" s="20" t="s">
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+      <c r="Q20" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="Q21" s="20" t="s">
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+      <c r="Q21" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="42"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C10:E10"/>
@@ -2589,10 +2414,18 @@
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2605,69 +2438,69 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB17"/>
+  <dimension ref="B1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:Y17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" customWidth="1"/>
-    <col min="13" max="13" width="4.90625" customWidth="1"/>
-    <col min="14" max="14" width="8.90625" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" customWidth="1"/>
-    <col min="16" max="17" width="8.90625" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" customWidth="1"/>
-    <col min="21" max="21" width="9.08984375" customWidth="1"/>
-    <col min="22" max="24" width="2.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="22" max="24" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
-      <c r="D1" s="26" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="45" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="94" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="94"/>
@@ -2686,556 +2519,469 @@
       <c r="S6" s="94"/>
       <c r="T6" s="94"/>
       <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="95"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="96"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="103" t="s">
+    </row>
+    <row r="7" spans="2:21" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="99" t="s">
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="84" t="s">
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="86"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="96"/>
-      <c r="C8" s="45" t="s">
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+    </row>
+    <row r="8" spans="2:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="94"/>
+      <c r="C8" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="91" t="s">
+      <c r="E8" s="95"/>
+      <c r="F8" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="91" t="s">
+      <c r="G8" s="96"/>
+      <c r="H8" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="91" t="s">
+      <c r="I8" s="96"/>
+      <c r="J8" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="87" t="s">
+      <c r="K8" s="96"/>
+      <c r="L8" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="87" t="s">
+      <c r="M8" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="87" t="s">
+      <c r="N8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="87" t="s">
+      <c r="O8" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="87" t="s">
+      <c r="P8" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="U8" s="109"/>
-      <c r="V8" s="89">
+      <c r="Q8" s="99"/>
+      <c r="R8" s="98">
         <v>0</v>
       </c>
-      <c r="W8" s="89">
+      <c r="S8" s="98">
         <v>1</v>
       </c>
-      <c r="X8" s="89">
+      <c r="T8" s="98">
         <v>2</v>
       </c>
-      <c r="Y8" s="89">
+      <c r="U8" s="98">
         <v>3</v>
       </c>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-    </row>
-    <row r="9" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="9" t="s">
+    </row>
+    <row r="9" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="110" t="s">
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="120"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="106" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+    </row>
+    <row r="10" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="24">
         <v>10</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="106" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" s="27"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="24">
         <v>0</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="106" t="s">
+      <c r="F11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+    </row>
+    <row r="12" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="25">
         <v>0</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="106" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="25">
         <v>20</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="106" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="24">
         <v>0</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="106" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+    </row>
+    <row r="15" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="24">
         <v>42.5</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="106" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+    </row>
+    <row r="16" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="106">
+      <c r="D16" s="24">
         <v>30</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-    </row>
-    <row r="17" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="106" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="U16" s="27"/>
+    </row>
+    <row r="17" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="106">
+      <c r="D17" s="24">
         <v>30</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
+      <c r="K17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
+  <mergeCells count="24">
+    <mergeCell ref="E6:U6"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="F7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3250,443 +2996,380 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N26"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" customWidth="1"/>
-    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
-      <c r="D1" s="26" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="D1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="49" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="50" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="52" t="s">
+      <c r="F4" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="53"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="51"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62"/>
+      <c r="G4" s="82"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="80"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="12">
+    <row r="6" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>13</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="13">
+      <c r="F6" s="12">
         <v>10</v>
       </c>
-      <c r="L6" s="13">
+      <c r="G6" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="12">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>14</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="12">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="L7" s="12">
+      <c r="G7" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>15</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="12">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="L8" s="12">
+      <c r="G8" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="12">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>16</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="12">
+      <c r="F9" s="11">
         <v>20</v>
       </c>
-      <c r="L9" s="12">
+      <c r="G9" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>17</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="89"/>
+      <c r="D10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="2">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="12">
+      <c r="G10" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>18</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="2">
+      <c r="F11" s="2">
         <v>42.5</v>
       </c>
-      <c r="L11" s="2">
+      <c r="G11" s="2">
         <v>42.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>19</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="2">
+      <c r="F12" s="2">
         <v>30</v>
       </c>
-      <c r="L12" s="2">
+      <c r="G12" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>20</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="2">
+      <c r="F13" s="2">
         <v>30</v>
       </c>
-      <c r="L13" s="2">
+      <c r="G13" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
+    <row r="14" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="47" t="s">
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="63" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="47" t="s">
+      <c r="G17" s="87"/>
+      <c r="H17" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="78" t="s">
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="79"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="77" t="s">
+      <c r="N17" s="65"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C18" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D18" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E18" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F18" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="65" t="s">
+      <c r="G18" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H18" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I18" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J18" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K18" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="74" t="s">
+      <c r="L18" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="76" t="s">
+      <c r="M18" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="59" t="s">
+      <c r="N18" s="74" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="80"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="66"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="20">
-        <f>SUM(C26:D26)</f>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="66"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="71"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
+        <f>SUM(C20:D20)</f>
         <v>8</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C20" s="28">
         <v>8</v>
       </c>
-      <c r="D26" s="122">
+      <c r="D20" s="28">
         <v>0</v>
       </c>
-      <c r="E26" s="123">
+      <c r="E20" s="29">
         <v>100</v>
       </c>
-      <c r="F26" s="124">
+      <c r="F20" s="30">
         <v>0</v>
       </c>
-      <c r="G26" s="125" t="s">
+      <c r="G20" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="126" t="s">
+      <c r="H20" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="20">
-        <f>SUM(J26:K26)</f>
+      <c r="I20" s="18">
+        <f>SUM(J20:K20)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="122">
+      <c r="J20" s="28">
         <v>0</v>
       </c>
-      <c r="K26" s="127">
+      <c r="K20" s="33">
         <v>0</v>
       </c>
-      <c r="L26" s="128"/>
-      <c r="M26" s="6" t="s">
+      <c r="L20" s="34"/>
+      <c r="M20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N26" s="129">
-        <f>C26</f>
+      <c r="N20" s="35">
+        <f>C20</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="24">
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="L18:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3694,6 +3377,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e00392fbb7f49de63e89755c965b762">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37d4e1d93698397f16b7bbb6f83014a7" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -3861,22 +3559,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845501DA-8B32-4FE5-8083-FBCE9B17F25B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3892,21 +3592,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>